--- a/00_Document/03_Testing/01_Backend/テストケース番号作成方法.xlsx
+++ b/00_Document/03_Testing/01_Backend/テストケース番号作成方法.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0198F-8BD0-48F0-82E3-47AADDB5D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FA09A-8102-4DB2-9AD7-5A2287C25898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3780" yWindow="3330" windowWidth="15375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57:L57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,57 +495,57 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -554,12 +554,12 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
@@ -604,28 +604,28 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
@@ -634,25 +634,25 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
@@ -892,23 +892,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B54:I54"/>
     <mergeCell ref="B55:I55"/>
     <mergeCell ref="B56:I56"/>
@@ -925,6 +908,23 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B44:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
